--- a/stock.xlsx
+++ b/stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005930</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>035420</t>
+          <t>35420</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>051910</t>
+          <t>51910</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>005380</t>
+          <t>5380</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,6 +573,98 @@
       </c>
       <c r="E6" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>88888</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>테스트 종목</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1조</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>99999</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New Item</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.1조</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>77777</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>페이지 확인</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>279979</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2조</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>555555</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>페이지는 넘어가나</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32283</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.3조</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
